--- a/project.xlsx
+++ b/project.xlsx
@@ -55,15 +55,9 @@
     <t>COVID-19 HELP</t>
   </si>
   <si>
-    <t>GIM MANAGEMENT</t>
-  </si>
-  <si>
     <t>HEALTH INSURANCE</t>
   </si>
   <si>
-    <t>LIBRARY MANAGEMENT</t>
-  </si>
-  <si>
     <t>ONLINE EDUCATION</t>
   </si>
   <si>
@@ -248,6 +242,12 @@
   </si>
   <si>
     <t>TOMAR</t>
+  </si>
+  <si>
+    <t>OLINE SHOPPING</t>
+  </si>
+  <si>
+    <t>HOTEL MANAGEMENT</t>
   </si>
 </sst>
 </file>
@@ -271,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,12 +318,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +632,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +641,7 @@
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
@@ -683,193 +690,191 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -880,13 +885,13 @@
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -897,9 +902,11 @@
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -915,36 +922,36 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/project.xlsx
+++ b/project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>TEAM-1</t>
   </si>
@@ -40,18 +40,12 @@
     <t>TEAM-8</t>
   </si>
   <si>
-    <t>TEAM-9</t>
-  </si>
-  <si>
     <t>COPORATE TRANSPORT</t>
   </si>
   <si>
     <t>COPORATE EVENT MANAGEMENT</t>
   </si>
   <si>
-    <t>FOOD DELIVERY</t>
-  </si>
-  <si>
     <t>COVID-19 HELP</t>
   </si>
   <si>
@@ -64,15 +58,9 @@
     <t>BOOK MY HOLIDAY</t>
   </si>
   <si>
-    <t>6 MEMBERS</t>
-  </si>
-  <si>
     <t>7 MEMBERS</t>
   </si>
   <si>
-    <t>FS</t>
-  </si>
-  <si>
     <t>RIK</t>
   </si>
   <si>
@@ -248,6 +236,33 @@
   </si>
   <si>
     <t>HOTEL MANAGEMENT</t>
+  </si>
+  <si>
+    <t>8 MEMBERS</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>1.complete abstract</t>
+  </si>
+  <si>
+    <t>2.form Design</t>
+  </si>
+  <si>
+    <t>3.table design</t>
+  </si>
+  <si>
+    <t>4.UML digrams</t>
+  </si>
+  <si>
+    <t>form design</t>
+  </si>
+  <si>
+    <t>routing</t>
+  </si>
+  <si>
+    <t>Angular-2 days</t>
   </si>
 </sst>
 </file>
@@ -318,13 +333,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,25 +645,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="3" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,287 +687,300 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
